--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H2">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I2">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J2">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N2">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O2">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P2">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q2">
-        <v>2.0571409078185</v>
+        <v>7.931308397004999</v>
       </c>
       <c r="R2">
-        <v>12.342845446911</v>
+        <v>47.58785038203</v>
       </c>
       <c r="S2">
-        <v>0.04073616007964383</v>
+        <v>0.01457161475121146</v>
       </c>
       <c r="T2">
-        <v>0.03392060266869634</v>
+        <v>0.01240757090386935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H3">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I3">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J3">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
         <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P3">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q3">
-        <v>1.135728081198667</v>
+        <v>3.441016002226666</v>
       </c>
       <c r="R3">
-        <v>10.221552730788</v>
+        <v>30.96914402003999</v>
       </c>
       <c r="S3">
-        <v>0.02249004953759714</v>
+        <v>0.006321927862007606</v>
       </c>
       <c r="T3">
-        <v>0.02809086691796506</v>
+        <v>0.00807457885103144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H4">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I4">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J4">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N4">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O4">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P4">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q4">
-        <v>0.6211150620686666</v>
+        <v>2.240925961003333</v>
       </c>
       <c r="R4">
-        <v>5.590035558618</v>
+        <v>20.16833364903</v>
       </c>
       <c r="S4">
-        <v>0.01229951847252822</v>
+        <v>0.004117089911931754</v>
       </c>
       <c r="T4">
-        <v>0.01536253337233676</v>
+        <v>0.005258485679734104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H5">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I5">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J5">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N5">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O5">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P5">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q5">
-        <v>4.6263036694315</v>
+        <v>7.430455678634998</v>
       </c>
       <c r="R5">
-        <v>27.757822016589</v>
+        <v>44.58273407180999</v>
       </c>
       <c r="S5">
-        <v>0.09161154014231131</v>
+        <v>0.01365143456228569</v>
       </c>
       <c r="T5">
-        <v>0.07628403479756349</v>
+        <v>0.01162404751724652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H6">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I6">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J6">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N6">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O6">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P6">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q6">
-        <v>1.981842445125667</v>
+        <v>0.3805736331566666</v>
       </c>
       <c r="R6">
-        <v>17.836582006131</v>
+        <v>3.42516269841</v>
       </c>
       <c r="S6">
-        <v>0.0392450759160125</v>
+        <v>0.00069920019361773</v>
       </c>
       <c r="T6">
-        <v>0.04901848717136829</v>
+        <v>0.0008930419990951834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.204407</v>
+        <v>0.6193099999999999</v>
       </c>
       <c r="H7">
-        <v>0.613221</v>
+        <v>1.85793</v>
       </c>
       <c r="I7">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="J7">
-        <v>0.2212630396213977</v>
+        <v>0.0433418173432821</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N7">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O7">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P7">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q7">
-        <v>0.751462271728</v>
+        <v>2.166607522383333</v>
       </c>
       <c r="R7">
-        <v>6.763160445551999</v>
+        <v>19.49946770145</v>
       </c>
       <c r="S7">
-        <v>0.01488069547330467</v>
+        <v>0.003980550062227872</v>
       </c>
       <c r="T7">
-        <v>0.01858651469346774</v>
+        <v>0.005084092392305503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H8">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I8">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J8">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N8">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O8">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P8">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q8">
-        <v>0.4629851034305</v>
+        <v>172.62028931966</v>
       </c>
       <c r="R8">
-        <v>2.777910620583</v>
+        <v>1035.72173591796</v>
       </c>
       <c r="S8">
-        <v>0.00916817861924475</v>
+        <v>0.3171426741089265</v>
       </c>
       <c r="T8">
-        <v>0.007634252799748848</v>
+        <v>0.2700435252257879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H9">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I9">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J9">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N9">
         <v>16.668628</v>
       </c>
       <c r="O9">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P9">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q9">
-        <v>0.2556097062404445</v>
+        <v>74.89170110725333</v>
       </c>
       <c r="R9">
-        <v>2.300487356164</v>
+        <v>674.0253099652799</v>
       </c>
       <c r="S9">
-        <v>0.005061664892155347</v>
+        <v>0.1375930630827398</v>
       </c>
       <c r="T9">
-        <v>0.006322198385164748</v>
+        <v>0.1757384869721863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H10">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I10">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J10">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N10">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O10">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P10">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q10">
-        <v>0.1397896566837778</v>
+        <v>48.77244312910668</v>
       </c>
       <c r="R10">
-        <v>1.258106910154</v>
+        <v>438.9519881619601</v>
       </c>
       <c r="S10">
-        <v>0.002768159347036448</v>
+        <v>0.08960605440851137</v>
       </c>
       <c r="T10">
-        <v>0.003457528881620679</v>
+        <v>0.1144478658479301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H11">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I11">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J11">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N11">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O11">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P11">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q11">
-        <v>1.041207082486167</v>
+        <v>161.71952278482</v>
       </c>
       <c r="R11">
-        <v>6.247242494917001</v>
+        <v>970.31713670892</v>
       </c>
       <c r="S11">
-        <v>0.02061831458749914</v>
+        <v>0.2971154903849184</v>
       </c>
       <c r="T11">
-        <v>0.01716866919840666</v>
+        <v>0.2529905968919676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H12">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I12">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J12">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N12">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O12">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P12">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q12">
-        <v>0.4460382494714445</v>
+        <v>8.282962580013333</v>
       </c>
       <c r="R12">
-        <v>4.014344245243001</v>
+        <v>74.54666322012</v>
       </c>
       <c r="S12">
-        <v>0.00883259161443694</v>
+        <v>0.01521768334720559</v>
       </c>
       <c r="T12">
-        <v>0.01103221916728562</v>
+        <v>0.01943653689177318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04600433333333334</v>
+        <v>13.47892</v>
       </c>
       <c r="H13">
-        <v>0.138013</v>
+        <v>40.43676</v>
       </c>
       <c r="I13">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555539</v>
       </c>
       <c r="J13">
-        <v>0.04979799434016115</v>
+        <v>0.9433093097555537</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N13">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O13">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P13">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q13">
-        <v>0.1691259146506667</v>
+        <v>47.15494577126667</v>
       </c>
       <c r="R13">
-        <v>1.522133231856</v>
+        <v>424.3945119414</v>
       </c>
       <c r="S13">
-        <v>0.003349085279788523</v>
+        <v>0.08663434442325253</v>
       </c>
       <c r="T13">
-        <v>0.004183125907934599</v>
+        <v>0.1106522979259087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H14">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I14">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J14">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N14">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O14">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P14">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q14">
-        <v>6.7771380566155</v>
+        <v>2.442768536745834</v>
       </c>
       <c r="R14">
-        <v>40.662828339693</v>
+        <v>14.656611220475</v>
       </c>
       <c r="S14">
-        <v>0.1342030483701281</v>
+        <v>0.004487920562675655</v>
       </c>
       <c r="T14">
-        <v>0.1117495677499005</v>
+        <v>0.003821415371120893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H15">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I15">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J15">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N15">
         <v>16.668628</v>
       </c>
       <c r="O15">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P15">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q15">
-        <v>3.741593962671557</v>
+        <v>1.059800628588889</v>
       </c>
       <c r="R15">
-        <v>33.674345664044</v>
+        <v>9.538205657299999</v>
       </c>
       <c r="S15">
-        <v>0.07409223648080074</v>
+        <v>0.001947094438884836</v>
       </c>
       <c r="T15">
-        <v>0.09254382259839784</v>
+        <v>0.002486894491736215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H16">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I16">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J16">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N16">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O16">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P16">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q16">
-        <v>2.046229555148222</v>
+        <v>0.6901841608861112</v>
       </c>
       <c r="R16">
-        <v>18.416065996334</v>
+        <v>6.211657447975001</v>
       </c>
       <c r="S16">
-        <v>0.04052008999549328</v>
+        <v>0.001268025046613785</v>
       </c>
       <c r="T16">
-        <v>0.05061102482964917</v>
+        <v>0.001619564229053758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H17">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I17">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J17">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N17">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O17">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P17">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q17">
-        <v>15.24110406846783</v>
+        <v>2.2885106008875</v>
       </c>
       <c r="R17">
-        <v>91.446624410807</v>
+        <v>13.731063605325</v>
       </c>
       <c r="S17">
-        <v>0.3018092016759384</v>
+        <v>0.004204513702025334</v>
       </c>
       <c r="T17">
-        <v>0.2513135747647881</v>
+        <v>0.00358009752281108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H18">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I18">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J18">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N18">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O18">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P18">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q18">
-        <v>6.529071395172557</v>
+        <v>0.1172131066472222</v>
       </c>
       <c r="R18">
-        <v>58.76164255655301</v>
+        <v>1.054917959825</v>
       </c>
       <c r="S18">
-        <v>0.1292907532557994</v>
+        <v>0.000215347096388403</v>
       </c>
       <c r="T18">
-        <v>0.1614887213725609</v>
+        <v>0.0002750485529230064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.6734076666666667</v>
+        <v>0.1907416666666667</v>
       </c>
       <c r="H19">
-        <v>2.020223</v>
+        <v>0.572225</v>
       </c>
       <c r="I19">
-        <v>0.7289389660384412</v>
+        <v>0.01334887290116399</v>
       </c>
       <c r="J19">
-        <v>0.7289389660384411</v>
+        <v>0.01334887290116398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N19">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O19">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P19">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q19">
-        <v>2.475651298597333</v>
+        <v>0.6672947794027778</v>
       </c>
       <c r="R19">
-        <v>22.280861687376</v>
+        <v>6.005653014625</v>
       </c>
       <c r="S19">
-        <v>0.04902363626028134</v>
+        <v>0.001225972054575977</v>
       </c>
       <c r="T19">
-        <v>0.06123225472314463</v>
+        <v>0.001565852733519033</v>
       </c>
     </row>
   </sheetData>
